--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manasmohanty/Personal/Workspace/ai-ml/parallel-processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E6F40-3824-554F-99E5-01D284EB58BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EDEF9D-089C-CA45-80EC-F1C1D7EFC164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{CB702F79-CA07-0544-93B3-318DC1A1A719}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>filename</t>
   </si>
@@ -94,20 +94,17 @@
     <t>Type1</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Type2</t>
   </si>
   <si>
-    <t>Medium</t>
+    <t>Element2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +118,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -144,9 +148,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +489,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,6 +520,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -523,7 +529,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,7 +583,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C3C221-DD46-1C45-86EE-4FCFBF1D2869}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
@@ -585,46 +591,104 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manasmohanty/Personal/Workspace/ai-ml/parallel-processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EDEF9D-089C-CA45-80EC-F1C1D7EFC164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18B9E4-58C0-E947-8A75-9DBC24520CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{CB702F79-CA07-0544-93B3-318DC1A1A719}"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{CB702F79-CA07-0544-93B3-318DC1A1A719}"/>
   </bookViews>
   <sheets>
     <sheet name="FileMapping" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>filename</t>
   </si>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D1AAE8-EFD5-9C4A-9544-38DF629465B1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C3C221-DD46-1C45-86EE-4FCFBF1D2869}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,13 +653,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -668,18 +668,18 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -688,10 +688,91 @@
         <v>18</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manasmohanty/Personal/Workspace/ai-ml/parallel-processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18B9E4-58C0-E947-8A75-9DBC24520CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB42171-7C1D-924E-8149-25624352A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{CB702F79-CA07-0544-93B3-318DC1A1A719}"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{CB702F79-CA07-0544-93B3-318DC1A1A719}"/>
   </bookViews>
   <sheets>
     <sheet name="FileMapping" sheetId="1" r:id="rId1"/>
     <sheet name="L_Data" sheetId="2" r:id="rId2"/>
     <sheet name="PriorityData" sheetId="3" r:id="rId3"/>
+    <sheet name="OB" sheetId="4" r:id="rId4"/>
+    <sheet name="SR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>filename</t>
   </si>
@@ -98,6 +100,39 @@
   </si>
   <si>
     <t>Element2</t>
+  </si>
+  <si>
+    <t>SR_element</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Element5</t>
+  </si>
+  <si>
+    <t>Element6</t>
+  </si>
+  <si>
+    <t>sr_val</t>
+  </si>
+  <si>
+    <t>sr_abc</t>
+  </si>
+  <si>
+    <t>Element4</t>
+  </si>
+  <si>
+    <t>ob_xyz</t>
+  </si>
+  <si>
+    <t>ob_abc</t>
+  </si>
+  <si>
+    <t>sr_el1</t>
+  </si>
+  <si>
+    <t>OB_element</t>
   </si>
 </sst>
 </file>
@@ -585,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C3C221-DD46-1C45-86EE-4FCFBF1D2869}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,4 +810,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0AC475-3A16-3E43-8D58-AD27ED2D2FC5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD896757-21F1-7249-A226-4D6FD7E18C27}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>